--- a/adapter/tests/test_no_run_parameters.xlsx
+++ b/adapter/tests/test_no_run_parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mg\code\repos\adapter\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mg\code\repos\adapter\adapter\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,47 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>col_1</t>
+  </si>
+  <si>
+    <t>col_2</t>
+  </si>
+  <si>
+    <t>col_3</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>col_11</t>
+  </si>
+  <si>
+    <t>col_22</t>
+  </si>
+  <si>
+    <t>col_33</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,6 +596,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="xlsx_table1" displayName="xlsx_table1" ref="B2:D5" totalsRowShown="0">
+  <autoFilter ref="B2:D5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="col_1"/>
+    <tableColumn id="2" name="col_2"/>
+    <tableColumn id="3" name="col_3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="xlsx_table2" displayName="xlsx_table2" ref="B9:D12" totalsRowShown="0">
+  <autoFilter ref="B9:D12"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="col_11"/>
+    <tableColumn id="2" name="col_22"/>
+    <tableColumn id="3" name="col_33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,12 +885,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>